--- a/data/yeong/총량/장성천2_2020.xlsx
+++ b/data/yeong/총량/장성천2_2020.xlsx
@@ -1,18 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\사업관련\환경AI\모듈작업\water-quality\data\yeong\총량\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="107">
   <si>
     <t>dt</t>
   </si>
@@ -333,89 +340,37 @@
   </si>
   <si>
     <t>20200527</t>
-  </si>
-  <si>
-    <t>2020-06-08 12:00</t>
-  </si>
-  <si>
-    <t>20200603</t>
-  </si>
-  <si>
-    <t>2020-06-16 12:00</t>
-  </si>
-  <si>
-    <t>20200610</t>
-  </si>
-  <si>
-    <t>2020-06-24 12:00</t>
-  </si>
-  <si>
-    <t>20200617</t>
-  </si>
-  <si>
-    <t>2020-07-10 12:00</t>
-  </si>
-  <si>
-    <t>20200709</t>
-  </si>
-  <si>
-    <t>2020-07-20 12:00</t>
-  </si>
-  <si>
-    <t>20200721</t>
-  </si>
-  <si>
-    <t>2020-08-15 12:00</t>
-  </si>
-  <si>
-    <t>20200820</t>
-  </si>
-  <si>
-    <t>2020-09-06 12:00</t>
-  </si>
-  <si>
-    <t>20200904</t>
-  </si>
-  <si>
-    <t>2020-09-12 12:00</t>
-  </si>
-  <si>
-    <t>20200910</t>
-  </si>
-  <si>
-    <t>2020-09-18 12:00</t>
-  </si>
-  <si>
-    <t>20200916</t>
-  </si>
-  <si>
-    <t>2020-09-24 12:00</t>
-  </si>
-  <si>
-    <t>20200923</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="0.000000"/>
-    <numFmt numFmtId="165" formatCode="0.0"/>
-    <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="176" formatCode="0.000000"/>
+    <numFmt numFmtId="177" formatCode="0.0"/>
+    <numFmt numFmtId="178" formatCode="0.000"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -433,7 +388,13 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -441,16 +402,24 @@
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -459,10 +428,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -708,83 +677,86 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
+  <dimension ref="A1:BJ19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20:XFD29"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.44" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.56" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.56" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.78" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.78" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.89" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.33" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.44" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.22" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.22" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.44" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.67" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.11" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.33" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.78" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.75" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="11" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="10" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.22" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.78" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.75" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="11" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="9.78" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.75" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="11" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="10" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="11.22" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="10.33" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="12.56" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="10.33" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="9.56" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="9.5" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="11" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="8.33" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="9.33" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="9.56" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="9.33" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="7.67" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="8.375" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="7.625" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="8" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="7.89" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="9.11" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="10.67" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="10.67" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="7.89" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="9.11" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="9.44" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="9.78" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="8.89" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="14.11" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="15.56" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="12.89" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="13.89" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="14.11" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="13.89" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="12.22" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="12.56" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="12.44" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="13.67" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="15.22" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="15.22" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="12.44" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="13.67" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="7.875" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="39" max="40" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="7.875" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="8.875" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="53" max="54" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="56" max="57" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="13.625" bestFit="1" customWidth="1"/>
     <col min="60" max="60" width="14" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="14.33" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="13.44" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="13.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -972,7 +944,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>62</v>
       </c>
@@ -1004,19 +976,19 @@
         <v>0.5</v>
       </c>
       <c r="AD2" s="3">
-        <v>3.6000000000000001</v>
+        <v>3.6</v>
       </c>
       <c r="AE2" s="3">
-        <v>7.7999999999999998</v>
+        <v>7.8</v>
       </c>
       <c r="AF2" s="3">
         <v>12.9</v>
       </c>
       <c r="AG2" s="3">
-        <v>2.6000000000000001</v>
+        <v>2.6</v>
       </c>
       <c r="AH2" s="3">
-        <v>5.5999999999999996</v>
+        <v>5.6</v>
       </c>
       <c r="AI2" s="3">
         <v>9.5</v>
@@ -1052,7 +1024,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>69</v>
       </c>
@@ -1087,19 +1059,19 @@
         <v>9.8000000000000007</v>
       </c>
       <c r="AE3" s="3">
-        <v>7.2999999999999998</v>
+        <v>7.3</v>
       </c>
       <c r="AF3" s="3">
-        <v>17.199999999999999</v>
+        <v>17.2</v>
       </c>
       <c r="AG3" s="3">
-        <v>2.7999999999999998</v>
+        <v>2.8</v>
       </c>
       <c r="AH3" s="3">
-        <v>7.0999999999999996</v>
+        <v>7.1</v>
       </c>
       <c r="AI3" s="3">
-        <v>6.7999999999999998</v>
+        <v>6.8</v>
       </c>
       <c r="AJ3">
         <v>299</v>
@@ -1126,13 +1098,13 @@
         <v>0.27300000000000002</v>
       </c>
       <c r="AR3" s="3">
-        <v>6.2000000000000002</v>
+        <v>6.2</v>
       </c>
       <c r="AS3" s="3">
-        <v>5.4000000000000004</v>
+        <v>5.4</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>72</v>
       </c>
@@ -1173,7 +1145,7 @@
         <v>14.4</v>
       </c>
       <c r="AG4" s="3">
-        <v>1.8999999999999999</v>
+        <v>1.9</v>
       </c>
       <c r="AH4" s="3">
         <v>6.5</v>
@@ -1206,13 +1178,13 @@
         <v>0.378</v>
       </c>
       <c r="AR4" s="3">
-        <v>5.2999999999999998</v>
+        <v>5.3</v>
       </c>
       <c r="AS4" s="3">
-        <v>4.7999999999999998</v>
+        <v>4.8</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>74</v>
       </c>
@@ -1247,10 +1219,10 @@
         <v>10.5</v>
       </c>
       <c r="AE5" s="3">
-        <v>7.5999999999999996</v>
+        <v>7.6</v>
       </c>
       <c r="AF5" s="3">
-        <v>14.300000000000001</v>
+        <v>14.3</v>
       </c>
       <c r="AG5" s="3">
         <v>4.4000000000000004</v>
@@ -1289,10 +1261,10 @@
         <v>10.199999999999999</v>
       </c>
       <c r="AS5" s="3">
-        <v>6.2000000000000002</v>
+        <v>6.2</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>76</v>
       </c>
@@ -1327,7 +1299,7 @@
         <v>14.1</v>
       </c>
       <c r="AE6" s="3">
-        <v>7.9000000000000004</v>
+        <v>7.9</v>
       </c>
       <c r="AF6" s="3">
         <v>15.5</v>
@@ -1369,10 +1341,10 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="AS6" s="3">
-        <v>7.2999999999999998</v>
+        <v>7.3</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>79</v>
       </c>
@@ -1404,7 +1376,7 @@
         <v>0.30199999999999999</v>
       </c>
       <c r="AD7" s="3">
-        <v>13.699999999999999</v>
+        <v>13.7</v>
       </c>
       <c r="AE7" s="3">
         <v>8.3000000000000007</v>
@@ -1419,7 +1391,7 @@
         <v>8</v>
       </c>
       <c r="AI7" s="3">
-        <v>3.8999999999999999</v>
+        <v>3.9</v>
       </c>
       <c r="AJ7">
         <v>317</v>
@@ -1434,7 +1406,7 @@
         <v>2.952</v>
       </c>
       <c r="AN7" s="5">
-        <v>0.84999999999999998</v>
+        <v>0.85</v>
       </c>
       <c r="AO7" s="4">
         <v>0.55900000000000005</v>
@@ -1449,10 +1421,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="AS7" s="3">
-        <v>7.2999999999999998</v>
+        <v>7.3</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>81</v>
       </c>
@@ -1487,7 +1459,7 @@
         <v>7</v>
       </c>
       <c r="AE8" s="3">
-        <v>7.2999999999999998</v>
+        <v>7.3</v>
       </c>
       <c r="AF8" s="3">
         <v>14.4</v>
@@ -1499,7 +1471,7 @@
         <v>8.5</v>
       </c>
       <c r="AI8" s="3">
-        <v>5.9000000000000004</v>
+        <v>5.9</v>
       </c>
       <c r="AJ8">
         <v>328</v>
@@ -1529,10 +1501,10 @@
         <v>4.9000000000000004</v>
       </c>
       <c r="AS8" s="3">
-        <v>6.4000000000000004</v>
+        <v>6.4</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>83</v>
       </c>
@@ -1579,7 +1551,7 @@
         <v>8.5</v>
       </c>
       <c r="AI9" s="3">
-        <v>5.9000000000000004</v>
+        <v>5.9</v>
       </c>
       <c r="AJ9">
         <v>313</v>
@@ -1612,7 +1584,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>85</v>
       </c>
@@ -1650,10 +1622,10 @@
         <v>8</v>
       </c>
       <c r="AF10" s="3">
-        <v>14.699999999999999</v>
+        <v>14.7</v>
       </c>
       <c r="AG10" s="3">
-        <v>4.2999999999999998</v>
+        <v>4.3</v>
       </c>
       <c r="AH10" s="3">
         <v>8.3000000000000007</v>
@@ -1686,13 +1658,13 @@
         <v>0.30399999999999999</v>
       </c>
       <c r="AR10" s="3">
-        <v>11.300000000000001</v>
+        <v>11.3</v>
       </c>
       <c r="AS10" s="3">
-        <v>6.5999999999999996</v>
+        <v>6.6</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>88</v>
       </c>
@@ -1727,19 +1699,19 @@
         <v>12.6</v>
       </c>
       <c r="AE11" s="3">
-        <v>7.4000000000000004</v>
+        <v>7.4</v>
       </c>
       <c r="AF11" s="3">
-        <v>14.300000000000001</v>
+        <v>14.3</v>
       </c>
       <c r="AG11" s="3">
-        <v>4.7999999999999998</v>
+        <v>4.8</v>
       </c>
       <c r="AH11" s="3">
         <v>8.6999999999999993</v>
       </c>
       <c r="AI11" s="3">
-        <v>4.7000000000000002</v>
+        <v>4.7</v>
       </c>
       <c r="AJ11">
         <v>327</v>
@@ -1766,13 +1738,13 @@
         <v>0.246</v>
       </c>
       <c r="AR11" s="3">
-        <v>12.300000000000001</v>
+        <v>12.3</v>
       </c>
       <c r="AS11" s="3">
-        <v>6.7000000000000002</v>
+        <v>6.7</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>90</v>
       </c>
@@ -1804,22 +1776,22 @@
         <v>0.105</v>
       </c>
       <c r="AD12" s="3">
-        <v>19.800000000000001</v>
+        <v>19.8</v>
       </c>
       <c r="AE12" s="3">
         <v>8.8000000000000007</v>
       </c>
       <c r="AF12" s="3">
-        <v>10.300000000000001</v>
+        <v>10.3</v>
       </c>
       <c r="AG12" s="3">
-        <v>5.2999999999999998</v>
+        <v>5.3</v>
       </c>
       <c r="AH12" s="3">
-        <v>12.300000000000001</v>
+        <v>12.3</v>
       </c>
       <c r="AI12" s="3">
-        <v>22.199999999999999</v>
+        <v>22.2</v>
       </c>
       <c r="AJ12">
         <v>300</v>
@@ -1834,13 +1806,13 @@
         <v>1.4750000000000001</v>
       </c>
       <c r="AN12" s="4">
-        <v>0.068000000000000005</v>
+        <v>6.8000000000000005E-2</v>
       </c>
       <c r="AO12" s="4">
         <v>0.26800000000000002</v>
       </c>
       <c r="AP12" s="5">
-        <v>0.23000000000000001</v>
+        <v>0.23</v>
       </c>
       <c r="AQ12" s="4">
         <v>0.19700000000000001</v>
@@ -1849,10 +1821,10 @@
         <v>14.1</v>
       </c>
       <c r="AS12" s="3">
-        <v>6.7000000000000002</v>
+        <v>6.7</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>92</v>
       </c>
@@ -1881,7 +1853,7 @@
         <v>93</v>
       </c>
       <c r="AC13" s="3">
-        <v>0.10000000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="AD13">
         <v>14</v>
@@ -1890,16 +1862,16 @@
         <v>8</v>
       </c>
       <c r="AF13" s="3">
-        <v>16.199999999999999</v>
+        <v>16.2</v>
       </c>
       <c r="AG13" s="3">
-        <v>8.0999999999999996</v>
+        <v>8.1</v>
       </c>
       <c r="AH13" s="3">
-        <v>14.300000000000001</v>
+        <v>14.3</v>
       </c>
       <c r="AI13" s="3">
-        <v>20.800000000000001</v>
+        <v>20.8</v>
       </c>
       <c r="AJ13">
         <v>323</v>
@@ -1932,7 +1904,7 @@
         <v>8.8000000000000007</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>94</v>
       </c>
@@ -1967,7 +1939,7 @@
         <v>17.899999999999999</v>
       </c>
       <c r="AE14" s="3">
-        <v>7.7000000000000002</v>
+        <v>7.7</v>
       </c>
       <c r="AF14">
         <v>12</v>
@@ -1976,7 +1948,7 @@
         <v>8</v>
       </c>
       <c r="AH14" s="3">
-        <v>12.699999999999999</v>
+        <v>12.7</v>
       </c>
       <c r="AI14" s="3">
         <v>11.1</v>
@@ -1994,7 +1966,7 @@
         <v>1.956</v>
       </c>
       <c r="AN14" s="5">
-        <v>0.45000000000000001</v>
+        <v>0.45</v>
       </c>
       <c r="AO14" s="4">
         <v>0.41699999999999998</v>
@@ -2006,13 +1978,13 @@
         <v>0.30099999999999999</v>
       </c>
       <c r="AR14" s="3">
-        <v>14.199999999999999</v>
+        <v>14.2</v>
       </c>
       <c r="AS14" s="3">
-        <v>8.4000000000000004</v>
+        <v>8.4</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>96</v>
       </c>
@@ -2044,7 +2016,7 @@
         <v>0.13400000000000001</v>
       </c>
       <c r="AD15" s="3">
-        <v>24.800000000000001</v>
+        <v>24.8</v>
       </c>
       <c r="AE15" s="3">
         <v>8.6999999999999993</v>
@@ -2053,10 +2025,10 @@
         <v>14.9</v>
       </c>
       <c r="AG15" s="3">
-        <v>8.5999999999999996</v>
+        <v>8.6</v>
       </c>
       <c r="AH15" s="3">
-        <v>15.800000000000001</v>
+        <v>15.8</v>
       </c>
       <c r="AI15" s="3">
         <v>10.5</v>
@@ -2074,7 +2046,7 @@
         <v>0.54900000000000004</v>
       </c>
       <c r="AN15" s="4">
-        <v>0.037999999999999999</v>
+        <v>3.7999999999999999E-2</v>
       </c>
       <c r="AO15" s="4">
         <v>0.248</v>
@@ -2086,13 +2058,13 @@
         <v>0.186</v>
       </c>
       <c r="AR15" s="3">
-        <v>20.800000000000001</v>
+        <v>20.8</v>
       </c>
       <c r="AS15" s="3">
-        <v>9.9000000000000004</v>
+        <v>9.9</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>99</v>
       </c>
@@ -2124,10 +2096,10 @@
         <v>0.20100000000000001</v>
       </c>
       <c r="AD16" s="3">
-        <v>27.300000000000001</v>
+        <v>27.3</v>
       </c>
       <c r="AE16" s="3">
-        <v>7.4000000000000004</v>
+        <v>7.4</v>
       </c>
       <c r="AF16" s="3">
         <v>8.8000000000000007</v>
@@ -2151,7 +2123,7 @@
         <v>2.4449999999999998</v>
       </c>
       <c r="AM16" s="5">
-        <v>0.66000000000000003</v>
+        <v>0.66</v>
       </c>
       <c r="AN16" s="4">
         <v>0.434</v>
@@ -2169,10 +2141,10 @@
         <v>7</v>
       </c>
       <c r="AS16" s="3">
-        <v>12.300000000000001</v>
+        <v>12.3</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>101</v>
       </c>
@@ -2204,13 +2176,13 @@
         <v>0.40300000000000002</v>
       </c>
       <c r="AD17" s="3">
-        <v>25.300000000000001</v>
+        <v>25.3</v>
       </c>
       <c r="AE17" s="3">
-        <v>7.2000000000000002</v>
+        <v>7.2</v>
       </c>
       <c r="AF17" s="3">
-        <v>9.5999999999999996</v>
+        <v>9.6</v>
       </c>
       <c r="AG17" s="3">
         <v>5.0999999999999996</v>
@@ -2219,7 +2191,7 @@
         <v>12.1</v>
       </c>
       <c r="AI17" s="3">
-        <v>14.199999999999999</v>
+        <v>14.2</v>
       </c>
       <c r="AJ17">
         <v>264</v>
@@ -2246,13 +2218,13 @@
         <v>0.127</v>
       </c>
       <c r="AR17" s="3">
-        <v>6.7000000000000002</v>
+        <v>6.7</v>
       </c>
       <c r="AS17" s="3">
-        <v>7.7999999999999998</v>
+        <v>7.8</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>103</v>
       </c>
@@ -2284,22 +2256,22 @@
         <v>1.1930000000000001</v>
       </c>
       <c r="AD18" s="3">
-        <v>20.800000000000001</v>
+        <v>20.8</v>
       </c>
       <c r="AE18" s="3">
-        <v>7.2000000000000002</v>
+        <v>7.2</v>
       </c>
       <c r="AF18" s="3">
         <v>8.8000000000000007</v>
       </c>
       <c r="AG18" s="3">
-        <v>6.0999999999999996</v>
+        <v>6.1</v>
       </c>
       <c r="AH18" s="3">
         <v>13.4</v>
       </c>
       <c r="AI18" s="3">
-        <v>31.899999999999999</v>
+        <v>31.9</v>
       </c>
       <c r="AJ18">
         <v>201</v>
@@ -2332,7 +2304,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>105</v>
       </c>
@@ -2364,22 +2336,22 @@
         <v>1.673</v>
       </c>
       <c r="AD19" s="3">
-        <v>22.800000000000001</v>
+        <v>22.8</v>
       </c>
       <c r="AE19">
         <v>7</v>
       </c>
       <c r="AF19" s="3">
-        <v>7.2000000000000002</v>
+        <v>7.2</v>
       </c>
       <c r="AG19" s="3">
-        <v>4.7000000000000002</v>
+        <v>4.7</v>
       </c>
       <c r="AH19">
         <v>13</v>
       </c>
       <c r="AI19" s="3">
-        <v>48.600000000000001</v>
+        <v>48.6</v>
       </c>
       <c r="AJ19">
         <v>203</v>
@@ -2409,807 +2381,11 @@
         <v>8</v>
       </c>
       <c r="AS19" s="3">
-        <v>7.5999999999999996</v>
+        <v>7.6</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="s">
-        <v>107</v>
-      </c>
-      <c r="B20" t="s">
-        <v>63</v>
-      </c>
-      <c r="C20" t="s">
-        <v>64</v>
-      </c>
-      <c r="D20" t="s">
-        <v>65</v>
-      </c>
-      <c r="E20" s="2">
-        <v>35.055276999999997</v>
-      </c>
-      <c r="F20" s="2">
-        <v>126.741388</v>
-      </c>
-      <c r="Z20" t="s">
-        <v>66</v>
-      </c>
-      <c r="AA20" t="s">
-        <v>67</v>
-      </c>
-      <c r="AB20" t="s">
-        <v>108</v>
-      </c>
-      <c r="AC20" s="4">
-        <v>1.696</v>
-      </c>
-      <c r="AD20" s="3">
-        <v>21.600000000000001</v>
-      </c>
-      <c r="AE20" s="3">
-        <v>6.7999999999999998</v>
-      </c>
-      <c r="AF20" s="3">
-        <v>6.0999999999999996</v>
-      </c>
-      <c r="AG20" s="3">
-        <v>7.7999999999999998</v>
-      </c>
-      <c r="AH20" s="3">
-        <v>13.199999999999999</v>
-      </c>
-      <c r="AI20" s="3">
-        <v>47.700000000000003</v>
-      </c>
-      <c r="AJ20">
-        <v>230</v>
-      </c>
-      <c r="AK20" s="4">
-        <v>3.3969999999999998</v>
-      </c>
-      <c r="AL20" s="4">
-        <v>3.3220000000000001</v>
-      </c>
-      <c r="AM20" s="4">
-        <v>1.429</v>
-      </c>
-      <c r="AN20" s="5">
-        <v>0.67000000000000004</v>
-      </c>
-      <c r="AO20" s="4">
-        <v>0.249</v>
-      </c>
-      <c r="AP20" s="4">
-        <v>0.16500000000000001</v>
-      </c>
-      <c r="AQ20" s="5">
-        <v>0.14999999999999999</v>
-      </c>
-      <c r="AR20" s="3">
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="AS20" s="3">
-        <v>8.5</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s">
-        <v>109</v>
-      </c>
-      <c r="B21" t="s">
-        <v>70</v>
-      </c>
-      <c r="C21" t="s">
-        <v>64</v>
-      </c>
-      <c r="D21" t="s">
-        <v>65</v>
-      </c>
-      <c r="E21" s="2">
-        <v>35.055276999999997</v>
-      </c>
-      <c r="F21" s="2">
-        <v>126.741388</v>
-      </c>
-      <c r="Z21" t="s">
-        <v>66</v>
-      </c>
-      <c r="AA21" t="s">
-        <v>67</v>
-      </c>
-      <c r="AB21" t="s">
-        <v>110</v>
-      </c>
-      <c r="AC21" s="4">
-        <v>1.4690000000000001</v>
-      </c>
-      <c r="AD21" s="3">
-        <v>26.199999999999999</v>
-      </c>
-      <c r="AE21" s="3">
-        <v>7.0999999999999996</v>
-      </c>
-      <c r="AF21">
-        <v>6</v>
-      </c>
-      <c r="AG21" s="3">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="AH21" s="3">
-        <v>13.1</v>
-      </c>
-      <c r="AI21" s="3">
-        <v>26.5</v>
-      </c>
-      <c r="AJ21">
-        <v>219</v>
-      </c>
-      <c r="AK21" s="4">
-        <v>2.4340000000000002</v>
-      </c>
-      <c r="AL21" s="4">
-        <v>2.419</v>
-      </c>
-      <c r="AM21" s="4">
-        <v>1.117</v>
-      </c>
-      <c r="AN21" s="4">
-        <v>0.27400000000000002</v>
-      </c>
-      <c r="AO21" s="4">
-        <v>0.20899999999999999</v>
-      </c>
-      <c r="AP21" s="4">
-        <v>0.155</v>
-      </c>
-      <c r="AQ21" s="4">
-        <v>0.13100000000000001</v>
-      </c>
-      <c r="AR21" s="3">
-        <v>12.4</v>
-      </c>
-      <c r="AS21" s="3">
-        <v>8.5999999999999996</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="s">
-        <v>111</v>
-      </c>
-      <c r="B22" t="s">
-        <v>77</v>
-      </c>
-      <c r="C22" t="s">
-        <v>64</v>
-      </c>
-      <c r="D22" t="s">
-        <v>65</v>
-      </c>
-      <c r="E22" s="2">
-        <v>35.055276999999997</v>
-      </c>
-      <c r="F22" s="2">
-        <v>126.741388</v>
-      </c>
-      <c r="Z22" t="s">
-        <v>66</v>
-      </c>
-      <c r="AA22" t="s">
-        <v>67</v>
-      </c>
-      <c r="AB22" t="s">
-        <v>112</v>
-      </c>
-      <c r="AC22" s="4">
-        <v>1.3540000000000001</v>
-      </c>
-      <c r="AD22" s="3">
-        <v>24.899999999999999</v>
-      </c>
-      <c r="AE22" s="3">
-        <v>7.2000000000000002</v>
-      </c>
-      <c r="AF22" s="3">
-        <v>6.5</v>
-      </c>
-      <c r="AG22" s="3">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="AH22" s="3">
-        <v>12.6</v>
-      </c>
-      <c r="AI22" s="3">
-        <v>52.600000000000001</v>
-      </c>
-      <c r="AJ22">
-        <v>225</v>
-      </c>
-      <c r="AK22" s="4">
-        <v>2.7629999999999999</v>
-      </c>
-      <c r="AL22" s="5">
-        <v>2.6600000000000001</v>
-      </c>
-      <c r="AM22" s="5">
-        <v>1.5700000000000001</v>
-      </c>
-      <c r="AN22" s="4">
-        <v>0.26800000000000002</v>
-      </c>
-      <c r="AO22" s="4">
-        <v>0.20200000000000001</v>
-      </c>
-      <c r="AP22" s="4">
-        <v>0.14899999999999999</v>
-      </c>
-      <c r="AQ22" s="4">
-        <v>0.13100000000000001</v>
-      </c>
-      <c r="AR22" s="3">
-        <v>13.699999999999999</v>
-      </c>
-      <c r="AS22" s="3">
-        <v>7.7000000000000002</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s">
-        <v>113</v>
-      </c>
-      <c r="B23" t="s">
-        <v>63</v>
-      </c>
-      <c r="C23" t="s">
-        <v>64</v>
-      </c>
-      <c r="D23" t="s">
-        <v>65</v>
-      </c>
-      <c r="E23" s="2">
-        <v>35.055276999999997</v>
-      </c>
-      <c r="F23" s="2">
-        <v>126.741388</v>
-      </c>
-      <c r="Z23" t="s">
-        <v>66</v>
-      </c>
-      <c r="AA23" t="s">
-        <v>67</v>
-      </c>
-      <c r="AB23" t="s">
-        <v>114</v>
-      </c>
-      <c r="AC23" s="4">
-        <v>0.83699999999999997</v>
-      </c>
-      <c r="AD23" s="3">
-        <v>26.600000000000001</v>
-      </c>
-      <c r="AE23" s="3">
-        <v>7.2000000000000002</v>
-      </c>
-      <c r="AF23" s="3">
-        <v>6.7000000000000002</v>
-      </c>
-      <c r="AG23" s="3">
-        <v>2.1000000000000001</v>
-      </c>
-      <c r="AH23" s="3">
-        <v>8.9000000000000004</v>
-      </c>
-      <c r="AI23" s="3">
-        <v>21.100000000000001</v>
-      </c>
-      <c r="AJ23">
-        <v>153</v>
-      </c>
-      <c r="AK23" s="4">
-        <v>2.1579999999999999</v>
-      </c>
-      <c r="AL23" s="4">
-        <v>2.0640000000000001</v>
-      </c>
-      <c r="AM23" s="4">
-        <v>1.379</v>
-      </c>
-      <c r="AN23" s="4">
-        <v>0.086999999999999994</v>
-      </c>
-      <c r="AO23" s="4">
-        <v>0.20300000000000001</v>
-      </c>
-      <c r="AP23" s="4">
-        <v>0.151</v>
-      </c>
-      <c r="AQ23" s="4">
-        <v>0.13700000000000001</v>
-      </c>
-      <c r="AR23" s="3">
-        <v>9.9000000000000004</v>
-      </c>
-      <c r="AS23" s="3">
-        <v>6.5</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s">
-        <v>115</v>
-      </c>
-      <c r="B24" t="s">
-        <v>70</v>
-      </c>
-      <c r="C24" t="s">
-        <v>64</v>
-      </c>
-      <c r="D24" t="s">
-        <v>65</v>
-      </c>
-      <c r="E24" s="2">
-        <v>35.055276999999997</v>
-      </c>
-      <c r="F24" s="2">
-        <v>126.741388</v>
-      </c>
-      <c r="Z24" t="s">
-        <v>66</v>
-      </c>
-      <c r="AA24" t="s">
-        <v>67</v>
-      </c>
-      <c r="AB24" t="s">
-        <v>116</v>
-      </c>
-      <c r="AD24" s="3">
-        <v>27.300000000000001</v>
-      </c>
-      <c r="AE24">
-        <v>8</v>
-      </c>
-      <c r="AF24" s="3">
-        <v>7.7000000000000002</v>
-      </c>
-      <c r="AG24" s="3">
-        <v>2.7000000000000002</v>
-      </c>
-      <c r="AH24" s="3">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="AI24" s="3">
-        <v>24.199999999999999</v>
-      </c>
-      <c r="AJ24">
-        <v>188</v>
-      </c>
-      <c r="AK24" s="4">
-        <v>2.8319999999999999</v>
-      </c>
-      <c r="AL24" s="4">
-        <v>2.8010000000000002</v>
-      </c>
-      <c r="AM24" s="4">
-        <v>2.1240000000000001</v>
-      </c>
-      <c r="AN24" s="4">
-        <v>0.249</v>
-      </c>
-      <c r="AO24" s="5">
-        <v>0.23000000000000001</v>
-      </c>
-      <c r="AP24" s="4">
-        <v>0.16700000000000001</v>
-      </c>
-      <c r="AQ24" s="4">
-        <v>0.153</v>
-      </c>
-      <c r="AR24" s="3">
-        <v>11.699999999999999</v>
-      </c>
-      <c r="AS24">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s">
-        <v>117</v>
-      </c>
-      <c r="B25" t="s">
-        <v>63</v>
-      </c>
-      <c r="C25" t="s">
-        <v>64</v>
-      </c>
-      <c r="D25" t="s">
-        <v>65</v>
-      </c>
-      <c r="E25" s="2">
-        <v>35.055276999999997</v>
-      </c>
-      <c r="F25" s="2">
-        <v>126.741388</v>
-      </c>
-      <c r="Z25" t="s">
-        <v>66</v>
-      </c>
-      <c r="AA25" t="s">
-        <v>67</v>
-      </c>
-      <c r="AB25" t="s">
-        <v>118</v>
-      </c>
-      <c r="AC25" s="4">
-        <v>1.0369999999999999</v>
-      </c>
-      <c r="AD25" s="3">
-        <v>28.399999999999999</v>
-      </c>
-      <c r="AE25" s="3">
-        <v>7.2000000000000002</v>
-      </c>
-      <c r="AF25" s="3">
-        <v>7.2000000000000002</v>
-      </c>
-      <c r="AG25" s="3">
-        <v>3.7999999999999998</v>
-      </c>
-      <c r="AH25" s="3">
-        <v>8.0999999999999996</v>
-      </c>
-      <c r="AI25" s="3">
-        <v>22.100000000000001</v>
-      </c>
-      <c r="AJ25">
-        <v>234</v>
-      </c>
-      <c r="AK25" s="4">
-        <v>2.657</v>
-      </c>
-      <c r="AL25" s="4">
-        <v>2.4849999999999999</v>
-      </c>
-      <c r="AM25" s="4">
-        <v>1.6759999999999999</v>
-      </c>
-      <c r="AN25" s="4">
-        <v>0.17199999999999999</v>
-      </c>
-      <c r="AO25" s="4">
-        <v>0.22600000000000001</v>
-      </c>
-      <c r="AP25" s="4">
-        <v>0.16700000000000001</v>
-      </c>
-      <c r="AQ25" s="4">
-        <v>0.14799999999999999</v>
-      </c>
-      <c r="AR25" s="3">
-        <v>23.600000000000001</v>
-      </c>
-      <c r="AS25" s="3">
-        <v>4.7000000000000002</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="s">
-        <v>119</v>
-      </c>
-      <c r="B26" t="s">
-        <v>63</v>
-      </c>
-      <c r="C26" t="s">
-        <v>64</v>
-      </c>
-      <c r="D26" t="s">
-        <v>65</v>
-      </c>
-      <c r="E26" s="2">
-        <v>35.055276999999997</v>
-      </c>
-      <c r="F26" s="2">
-        <v>126.741388</v>
-      </c>
-      <c r="Z26" t="s">
-        <v>66</v>
-      </c>
-      <c r="AA26" t="s">
-        <v>67</v>
-      </c>
-      <c r="AB26" t="s">
-        <v>120</v>
-      </c>
-      <c r="AC26" s="4">
-        <v>4.0830000000000002</v>
-      </c>
-      <c r="AD26" s="3">
-        <v>23.699999999999999</v>
-      </c>
-      <c r="AE26" s="3">
-        <v>6.9000000000000004</v>
-      </c>
-      <c r="AF26" s="3">
-        <v>7.5</v>
-      </c>
-      <c r="AG26" s="3">
-        <v>1.2</v>
-      </c>
-      <c r="AH26" s="3">
-        <v>8.9000000000000004</v>
-      </c>
-      <c r="AI26" s="3">
-        <v>60.100000000000001</v>
-      </c>
-      <c r="AJ26">
-        <v>125</v>
-      </c>
-      <c r="AK26" s="4">
-        <v>2.8660000000000001</v>
-      </c>
-      <c r="AL26" s="4">
-        <v>2.7749999999999999</v>
-      </c>
-      <c r="AM26" s="4">
-        <v>1.484</v>
-      </c>
-      <c r="AN26" s="4">
-        <v>0.59599999999999997</v>
-      </c>
-      <c r="AO26" s="4">
-        <v>0.33400000000000002</v>
-      </c>
-      <c r="AP26" s="4">
-        <v>0.25700000000000001</v>
-      </c>
-      <c r="AQ26" s="4">
-        <v>0.24099999999999999</v>
-      </c>
-      <c r="AR26" s="3">
-        <v>9.6999999999999993</v>
-      </c>
-      <c r="AS26" s="3">
-        <v>6.2000000000000002</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s">
-        <v>121</v>
-      </c>
-      <c r="B27" t="s">
-        <v>70</v>
-      </c>
-      <c r="C27" t="s">
-        <v>64</v>
-      </c>
-      <c r="D27" t="s">
-        <v>65</v>
-      </c>
-      <c r="E27" s="2">
-        <v>35.055276999999997</v>
-      </c>
-      <c r="F27" s="2">
-        <v>126.741388</v>
-      </c>
-      <c r="Z27" t="s">
-        <v>66</v>
-      </c>
-      <c r="AA27" t="s">
-        <v>67</v>
-      </c>
-      <c r="AB27" t="s">
-        <v>122</v>
-      </c>
-      <c r="AC27" s="4">
-        <v>3.7120000000000002</v>
-      </c>
-      <c r="AD27" s="3">
-        <v>22.600000000000001</v>
-      </c>
-      <c r="AE27" s="3">
-        <v>6.7000000000000002</v>
-      </c>
-      <c r="AF27" s="3">
-        <v>7.2999999999999998</v>
-      </c>
-      <c r="AG27" s="3">
-        <v>4.2999999999999998</v>
-      </c>
-      <c r="AH27" s="3">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="AI27" s="3">
-        <v>41.5</v>
-      </c>
-      <c r="AJ27">
-        <v>172</v>
-      </c>
-      <c r="AK27" s="4">
-        <v>3.5049999999999999</v>
-      </c>
-      <c r="AL27" s="3">
-        <v>3.3999999999999999</v>
-      </c>
-      <c r="AM27" s="4">
-        <v>1.704</v>
-      </c>
-      <c r="AN27" s="5">
-        <v>0.77000000000000002</v>
-      </c>
-      <c r="AO27" s="4">
-        <v>0.29199999999999998</v>
-      </c>
-      <c r="AP27" s="4">
-        <v>0.23200000000000001</v>
-      </c>
-      <c r="AQ27" s="4">
-        <v>0.215</v>
-      </c>
-      <c r="AR27" s="3">
-        <v>6.2999999999999998</v>
-      </c>
-      <c r="AS27" s="3">
-        <v>5.4000000000000004</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s">
-        <v>123</v>
-      </c>
-      <c r="B28" t="s">
-        <v>77</v>
-      </c>
-      <c r="C28" t="s">
-        <v>64</v>
-      </c>
-      <c r="D28" t="s">
-        <v>65</v>
-      </c>
-      <c r="E28" s="2">
-        <v>35.055276999999997</v>
-      </c>
-      <c r="F28" s="2">
-        <v>126.741388</v>
-      </c>
-      <c r="Z28" t="s">
-        <v>66</v>
-      </c>
-      <c r="AA28" t="s">
-        <v>67</v>
-      </c>
-      <c r="AB28" t="s">
-        <v>124</v>
-      </c>
-      <c r="AC28" s="4">
-        <v>1.9650000000000001</v>
-      </c>
-      <c r="AD28" s="3">
-        <v>23.199999999999999</v>
-      </c>
-      <c r="AE28" s="3">
-        <v>6.7000000000000002</v>
-      </c>
-      <c r="AF28" s="3">
-        <v>6.9000000000000004</v>
-      </c>
-      <c r="AG28" s="3">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="AH28" s="3">
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="AI28" s="3">
-        <v>22.300000000000001</v>
-      </c>
-      <c r="AJ28">
-        <v>226</v>
-      </c>
-      <c r="AK28" s="4">
-        <v>4.5720000000000001</v>
-      </c>
-      <c r="AL28" s="4">
-        <v>4.4779999999999998</v>
-      </c>
-      <c r="AM28" s="4">
-        <v>2.3519999999999999</v>
-      </c>
-      <c r="AN28" s="4">
-        <v>1.1870000000000001</v>
-      </c>
-      <c r="AO28" s="4">
-        <v>0.27400000000000002</v>
-      </c>
-      <c r="AP28" s="4">
-        <v>0.217</v>
-      </c>
-      <c r="AQ28" s="4">
-        <v>0.19500000000000001</v>
-      </c>
-      <c r="AR28" s="3">
-        <v>12.4</v>
-      </c>
-      <c r="AS28">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s">
-        <v>125</v>
-      </c>
-      <c r="B29" t="s">
-        <v>86</v>
-      </c>
-      <c r="C29" t="s">
-        <v>64</v>
-      </c>
-      <c r="D29" t="s">
-        <v>65</v>
-      </c>
-      <c r="E29" s="2">
-        <v>35.055276999999997</v>
-      </c>
-      <c r="F29" s="2">
-        <v>126.741388</v>
-      </c>
-      <c r="Z29" t="s">
-        <v>66</v>
-      </c>
-      <c r="AA29" t="s">
-        <v>67</v>
-      </c>
-      <c r="AB29" t="s">
-        <v>126</v>
-      </c>
-      <c r="AC29" s="4">
-        <v>0.995</v>
-      </c>
-      <c r="AD29" s="3">
-        <v>19.199999999999999</v>
-      </c>
-      <c r="AE29" s="3">
-        <v>7.0999999999999996</v>
-      </c>
-      <c r="AF29" s="3">
-        <v>8.5999999999999996</v>
-      </c>
-      <c r="AG29" s="3">
-        <v>4.5</v>
-      </c>
-      <c r="AH29">
-        <v>13</v>
-      </c>
-      <c r="AI29" s="3">
-        <v>12.1</v>
-      </c>
-      <c r="AJ29">
-        <v>302</v>
-      </c>
-      <c r="AK29" s="4">
-        <v>7.8570000000000002</v>
-      </c>
-      <c r="AL29" s="4">
-        <v>7.5739999999999998</v>
-      </c>
-      <c r="AM29" s="4">
-        <v>2.7629999999999999</v>
-      </c>
-      <c r="AN29" s="4">
-        <v>2.8519999999999999</v>
-      </c>
-      <c r="AO29" s="4">
-        <v>0.371</v>
-      </c>
-      <c r="AP29" s="4">
-        <v>0.27100000000000002</v>
-      </c>
-      <c r="AQ29" s="4">
-        <v>0.24099999999999999</v>
-      </c>
-      <c r="AR29" s="3">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="AS29" s="3">
-        <v>7.7000000000000002</v>
-      </c>
-    </row>
-    <row r="30"/>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>